--- a/Employee_Reports35/Regin Alis Q0187.xlsx
+++ b/Employee_Reports35/Regin Alis Q0187.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -695,11 +695,11 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -744,11 +744,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -781,11 +781,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">

--- a/Employee_Reports35/Regin Alis Q0187.xlsx
+++ b/Employee_Reports35/Regin Alis Q0187.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -695,11 +695,11 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -744,11 +744,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -781,11 +781,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
